--- a/MA-412/NormalExcel.xlsx
+++ b/MA-412/NormalExcel.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stark/StarkDev/Spring2019_Homework/MA-412/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevStark\Spring2019_Homework\MA-412\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC2DB4B-C80B-E049-A66B-7A114DB7D800}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E53B1C-7A5D-48A5-B847-71810FC5DB5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="60" windowWidth="27920" windowHeight="17440" xr2:uid="{C9C31EF5-6B79-2F46-96CA-CB61A01025CA}"/>
+    <workbookView xWindow="375" yWindow="510" windowWidth="27915" windowHeight="17445" xr2:uid="{C9C31EF5-6B79-2F46-96CA-CB61A01025CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,18 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38617A4E-9D12-1B4F-B685-4858DF721523}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16.5</v>
       </c>
@@ -444,7 +443,7 @@
         <v>0.20232838096364303</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>_xlfn.NORM.INV(D3,B2,C2)</f>
         <v>16.986912176170883</v>
@@ -459,7 +458,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>_xlfn.NORM.INV(D4,B4,C4)</f>
         <v>14.824021609275968</v>
@@ -474,7 +473,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>_xlfn.NORM.INV(D5,B5,C5)</f>
         <v>17.175978390724033</v>
@@ -489,7 +488,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16.5</v>
       </c>
@@ -508,7 +507,7 @@
         <v>6.2096653257761592E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>_xlfn.NORM.INV(D7,B7,C7)</f>
         <v>15.60800720309199</v>
@@ -523,7 +522,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>_xlfn.NORM.INV(D8,B8,C8)</f>
         <v>16.39199279690801</v>
@@ -536,6 +535,55 @@
       </c>
       <c r="D8">
         <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.NORM.DIST(A10,B10,C10,TRUE)</f>
+        <v>0.74750746245307709</v>
+      </c>
+      <c r="E10">
+        <f>1-D10</f>
+        <v>0.25249253754692291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>_xlfn.NORM.INV(D11,B11,C11)</f>
+        <v>16.979043622122521</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>125</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <f>1 - _xlfn.NORM.DIST(A13,B13,C13,TRUE)</f>
+        <v>4.7790352272814696E-2</v>
       </c>
     </row>
   </sheetData>
